--- a/app/data/example_data_template.xlsx
+++ b/app/data/example_data_template.xlsx
@@ -23,15 +23,45 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="53">
   <x:si>
+    <x:t>CIT (kidney) HH.MM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A - White - British</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Date of Transplant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WIT(kidney) HH.MM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kidney transplanted</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Recipient ethnicity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reason for failure</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Number of kidney transplant operations (recipient)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Delayed graft function/primary non-function</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EBV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Max</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n/a</x:t>
+  </x:si>
+  <x:si>
     <x:t>CMV</x:t>
   </x:si>
   <x:si>
-    <x:t>n/a</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EBV</x:t>
-  </x:si>
-  <x:si>
     <x:t>p/n</x:t>
   </x:si>
   <x:si>
@@ -41,155 +71,122 @@
     <x:t>Min</x:t>
   </x:si>
   <x:si>
-    <x:t>Max</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Delayed graft function/primary non-function</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Number of kidney transplant operations (recipient)</x:t>
+    <x:t>Date of first transplant kidney biopsy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Donor sex</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R - Chinese</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Variable</x:t>
+  </x:si>
+  <x:si>
+    <x:t>con_input</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cat_output</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Donor age</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cat_input</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HLA_A_match</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HLA_B_match</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Interval</x:t>
+  </x:si>
+  <x:si>
+    <x:t>high risk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Days from transplant to biopsy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Donor cause of death (if known)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Artery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vein</x:t>
   </x:si>
   <x:si>
     <x:t>Right</x:t>
   </x:si>
   <x:si>
-    <x:t>Donor age</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HLA_A_match</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HLA_B_match</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Donor sex</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R - Chinese</x:t>
-  </x:si>
-  <x:si>
-    <x:t>con_input</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Variable</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cat_input</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cat_output</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Date of first transplant kidney biopsy</x:t>
+    <x:t>Female</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Male</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ureter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ignore</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Left</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DBD kidney transplant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DCD kidney transplant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CA - White - English</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Live transplant from</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Intracranial haemorrhage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Immunosupression protocol</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Date of failure (kidney)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Patient number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Recipient sex</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HLA_DR_match</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Transplant type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>standard risk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Not specified</x:t>
   </x:si>
   <x:si>
     <x:t>Recipient age</x:t>
-  </x:si>
-  <x:si>
-    <x:t>standard risk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Patient number</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Recipient sex</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Transplant type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HLA_DR_match</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Donor cause of death (if known)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Days from transplant to biopsy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WIT(kidney) HH.MM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A - White - British</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reason for failure</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CIT (kidney) HH.MM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Recipient ethnicity</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Date of Transplant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kidney transplanted</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Immunosupression protocol</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Date of failure (kidney)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Intracranial haemorrhage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ureter</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Male</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Artery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Vein</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Left</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ignore</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Female</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Interval</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DBD kidney transplant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Live transplant from</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CA - White - English</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DCD kidney transplant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Not specified</x:t>
-  </x:si>
-  <x:si>
-    <x:t>high risk</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="1">
-    <x:numFmt numFmtId="164" formatCode="0_ "/>
-  </x:numFmts>
-  <x:fonts count="11">
+  <x:fonts count="10">
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="12"/>
@@ -225,73 +222,22 @@
       <x:sz val="9"/>
       <x:color rgb="ff6a8759"/>
     </x:font>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="Menlo"/>
-          <x:sz val="9"/>
-          <x:color rgb="ffcc7832"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="Menlo"/>
-          <x:sz val="9"/>
-          <x:color rgb="ffcc7832"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="Calibri"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="Calibri"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
     <x:font>
-      <x:name val="돋움"/>
+      <x:name val="Menlo"/>
+      <x:sz val="9"/>
+      <x:color rgb="ffcc7832"/>
+    </x:font>
+    <x:font>
+      <x:name val="Calibri"/>
       <x:sz val="11"/>
       <x:color rgb="ff000000"/>
     </x:font>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="Calibri"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="Calibri"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <x:font>
+      <x:name val="Calibri"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+      <x:b val="1"/>
+    </x:font>
   </x:fonts>
   <x:fills count="2">
     <x:fill>
@@ -355,15 +301,18 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -372,46 +321,43 @@
     <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="top"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="top"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="right" vertical="top"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="right" vertical="top"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellXfs>
   <x:cellStyles count="1">
@@ -1106,120 +1052,120 @@
   <x:dimension ref="A1:AC9"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E14" activeCellId="0" sqref="E14:E14"/>
+      <x:selection activeCell="J17" activeCellId="0" sqref="J17:J17"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.800000000000001"/>
   <x:cols>
-    <x:col min="1" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
-    <x:col min="5" max="5" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="6" max="6" width="16.421875" bestFit="1" customWidth="1"/>
-    <x:col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
-    <x:col min="8" max="8" width="13.609375" bestFit="1" customWidth="1"/>
-    <x:col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
-    <x:col min="10" max="10" width="15.41015625" bestFit="1" customWidth="1"/>
-    <x:col min="11" max="17" width="11.5546875" bestFit="1" customWidth="1"/>
-    <x:col min="19" max="19" width="11.5546875" bestFit="1" customWidth="1"/>
-    <x:col min="22" max="23" width="11.5546875" bestFit="1" customWidth="1"/>
-    <x:col min="26" max="26" width="11.5546875" bestFit="1" customWidth="1"/>
-    <x:col min="28" max="29" width="11.5546875" bestFit="1" customWidth="1"/>
+    <x:col min="1" max="2" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="18.1640625" style="2" bestFit="1" customWidth="1"/>
+    <x:col min="6" max="6" width="16.421875" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="7" max="7" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="8" max="8" width="13.609375" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="9" max="9" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="10" max="10" width="15.41015625" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="11" max="17" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="19" max="19" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="22" max="23" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="26" max="26" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="28" max="29" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:29">
-      <x:c r="A1" s="10" t="s">
+      <x:c r="A1" s="8" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B1" s="9" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C1" s="9" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D1" s="9" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E1" s="9" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F1" s="9" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="G1" s="9" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H1" s="9" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="I1" s="9" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="J1" s="9" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="K1" s="9" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="L1" s="9" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="M1" s="9" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="N1" s="9" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="O1" s="9" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="P1" s="9" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q1" s="9" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="R1" s="9" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="S1" s="9" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="B1" s="8" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C1" s="8" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D1" s="8" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E1" s="8" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F1" s="8" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G1" s="8" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="H1" s="8" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="I1" s="8" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="J1" s="8" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="K1" s="8" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="L1" s="8" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="M1" s="8" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N1" s="8" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="O1" s="8" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="P1" s="8" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="Q1" s="8" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="R1" s="8" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="S1" s="8" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="T1" s="8" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="U1" s="8" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="V1" s="8" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="W1" s="8" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="X1" s="6"/>
-      <x:c r="Y1" s="6"/>
-      <x:c r="Z1" s="6"/>
-      <x:c r="AA1" s="6"/>
-      <x:c r="AB1" s="6"/>
-      <x:c r="AC1" s="6"/>
+      <x:c r="T1" s="9" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="U1" s="9" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="V1" s="9" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="W1" s="9" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="X1" s="7"/>
+      <x:c r="Y1" s="7"/>
+      <x:c r="Z1" s="7"/>
+      <x:c r="AA1" s="7"/>
+      <x:c r="AB1" s="7"/>
+      <x:c r="AC1" s="7"/>
     </x:row>
     <x:row r="2" spans="1:29">
-      <x:c r="A2" s="9">
+      <x:c r="A2" s="10">
         <x:v>0</x:v>
       </x:c>
       <x:c r="B2" s="11">
         <x:v>40</x:v>
       </x:c>
       <x:c r="C2" s="11" t="s">
-        <x:v>39</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D2" s="11" t="s">
-        <x:v>29</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E2" s="12">
         <x:v>39819</x:v>
       </x:c>
-      <x:c r="F2" s="6" t="s">
-        <x:v>50</x:v>
+      <x:c r="F2" s="13" t="s">
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G2" s="11">
         <x:v>1</x:v>
@@ -1228,7 +1174,7 @@
         <x:v>44197</x:v>
       </x:c>
       <x:c r="I2" s="11" t="s">
-        <x:v>21</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="J2" s="11">
         <x:v>2</x:v>
@@ -1240,10 +1186,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="M2" s="11" t="s">
-        <x:v>4</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="N2" s="11" t="s">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="O2" s="11">
         <x:v>1</x:v>
@@ -1255,16 +1201,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="R2" s="11" t="s">
-        <x:v>42</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="S2" s="11">
         <x:v>30</x:v>
       </x:c>
       <x:c r="T2" s="11" t="s">
-        <x:v>45</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="U2" s="11" t="s">
-        <x:v>37</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="V2" s="11">
         <x:v>35</x:v>
@@ -1272,12 +1218,12 @@
       <x:c r="W2" s="11">
         <x:v>1110</x:v>
       </x:c>
-      <x:c r="X2" s="6"/>
-      <x:c r="Y2" s="6"/>
-      <x:c r="Z2" s="6"/>
-      <x:c r="AA2" s="6"/>
-      <x:c r="AB2" s="6"/>
-      <x:c r="AC2" s="6"/>
+      <x:c r="X2" s="7"/>
+      <x:c r="Y2" s="7"/>
+      <x:c r="Z2" s="7"/>
+      <x:c r="AA2" s="7"/>
+      <x:c r="AB2" s="7"/>
+      <x:c r="AC2" s="7"/>
     </x:row>
     <x:row r="3" spans="1:29">
       <x:c r="A3" s="11">
@@ -1287,25 +1233,25 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="C3" s="11" t="s">
-        <x:v>45</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D3" s="11" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E3" s="13">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E3" s="11">
         <x:v>40549</x:v>
       </x:c>
       <x:c r="F3" s="11" t="s">
-        <x:v>47</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G3" s="11">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H3" s="13">
+      <x:c r="H3" s="11">
         <x:v>44197</x:v>
       </x:c>
       <x:c r="I3" s="11" t="s">
-        <x:v>21</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="J3" s="11">
         <x:v>2</x:v>
@@ -1317,10 +1263,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="M3" s="11" t="s">
-        <x:v>3</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="N3" s="11" t="s">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="O3" s="11">
         <x:v>1</x:v>
@@ -1332,16 +1278,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="R3" s="11" t="s">
-        <x:v>42</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="S3" s="11">
         <x:v>22</x:v>
       </x:c>
       <x:c r="T3" s="11" t="s">
-        <x:v>39</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="U3" s="11" t="s">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="V3" s="11">
         <x:v>20</x:v>
@@ -1349,40 +1295,40 @@
       <x:c r="W3" s="11">
         <x:v>900</x:v>
       </x:c>
-      <x:c r="X3" s="6"/>
-      <x:c r="Y3" s="6"/>
-      <x:c r="Z3" s="6"/>
-      <x:c r="AA3" s="6"/>
-      <x:c r="AB3" s="6"/>
-      <x:c r="AC3" s="6"/>
-    </x:row>
-    <x:row r="4" spans="1:29" customFormat="1" ht="15.75" customHeight="1">
-      <x:c r="A4" s="9">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B4" s="7">
-        <x:v>24.898015058179329</x:v>
-      </x:c>
-      <x:c r="C4" s="5" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="D4" s="5" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="E4" s="13">
+      <x:c r="X3" s="7"/>
+      <x:c r="Y3" s="7"/>
+      <x:c r="Z3" s="7"/>
+      <x:c r="AA3" s="7"/>
+      <x:c r="AB3" s="7"/>
+      <x:c r="AC3" s="7"/>
+    </x:row>
+    <x:row r="4" spans="1:29" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <x:c r="A4" s="10">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B4" s="11">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C4" s="11" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D4" s="11" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E4" s="11">
         <x:v>39841</x:v>
       </x:c>
-      <x:c r="F4" s="6" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="G4" s="5">
+      <x:c r="F4" s="13" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G4" s="11">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H4" s="12">
         <x:v>43586</x:v>
       </x:c>
       <x:c r="I4" s="11" t="s">
-        <x:v>21</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="J4" s="11">
         <x:v>2</x:v>
@@ -1393,150 +1339,150 @@
       <x:c r="L4" s="11">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="M4" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="N4" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="O4" s="5">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="P4" s="5">
+      <x:c r="M4" s="13" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="N4" s="13" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="O4" s="11">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P4" s="11">
         <x:v>1</x:v>
       </x:c>
       <x:c r="Q4" s="11">
         <x:v>1</x:v>
       </x:c>
       <x:c r="R4" s="11" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="S4" s="11">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="T4" s="11" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="U4" s="11" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="V4" s="11">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="W4" s="11">
+        <x:v>1500</x:v>
+      </x:c>
+      <x:c r="X4" s="6"/>
+      <x:c r="Y4" s="6"/>
+      <x:c r="Z4" s="6"/>
+      <x:c r="AA4" s="6"/>
+      <x:c r="AB4" s="6"/>
+      <x:c r="AC4" s="6"/>
+    </x:row>
+    <x:row r="5" spans="1:29" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <x:c r="A5" s="10">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B5" s="11">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C5" s="11" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D5" s="11" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E5" s="11">
+        <x:v>39846</x:v>
+      </x:c>
+      <x:c r="F5" s="11" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="G5" s="11">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H5" s="11">
+        <x:v>41669</x:v>
+      </x:c>
+      <x:c r="I5" s="11" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J5" s="11">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K5" s="11">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L5" s="11">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="M5" s="13" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="N5" s="13" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="O5" s="11">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P5" s="11">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q5" s="11">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R5" s="11" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="S5" s="11">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="S4" s="5">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="T4" s="11" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="U4" s="11" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V4" s="5">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="W4" s="5">
-        <x:v>1500</x:v>
-      </x:c>
-      <x:c r="X4" s="5"/>
-      <x:c r="Y4" s="5"/>
-      <x:c r="Z4" s="5"/>
-      <x:c r="AA4" s="5"/>
-      <x:c r="AB4" s="5"/>
-      <x:c r="AC4" s="5"/>
-    </x:row>
-    <x:row r="5" spans="1:29" customFormat="1" ht="15.75" customHeight="1">
-      <x:c r="A5" s="9">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B5" s="7">
-        <x:v>43.394934976043807</x:v>
-      </x:c>
-      <x:c r="C5" s="5" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="D5" s="5" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="E5" s="13">
-        <x:v>39846</x:v>
-      </x:c>
-      <x:c r="F5" s="5" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="G5" s="5">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H5" s="13">
-        <x:v>41669</x:v>
-      </x:c>
-      <x:c r="I5" s="11" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="J5" s="11">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="K5" s="11">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="L5" s="11">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="M5" s="6" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="N5" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="O5" s="5">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P5" s="5">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q5" s="11">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R5" s="11" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="S5" s="5">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="T5" s="6" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="U5" s="6" t="s">
-        <x:v>37</x:v>
+      <x:c r="T5" s="13" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="U5" s="13" t="s">
+        <x:v>43</x:v>
       </x:c>
       <x:c r="V5" s="11">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="W5" s="5">
+      <x:c r="W5" s="11">
         <x:v>740</x:v>
       </x:c>
-      <x:c r="X5" s="5"/>
-      <x:c r="Y5" s="5"/>
-      <x:c r="Z5" s="5"/>
-      <x:c r="AA5" s="5"/>
-      <x:c r="AB5" s="5"/>
-      <x:c r="AC5" s="5"/>
-    </x:row>
-    <x:row r="6" spans="1:29" customFormat="1" ht="15.75" customHeight="1">
+      <x:c r="X5" s="6"/>
+      <x:c r="Y5" s="6"/>
+      <x:c r="Z5" s="6"/>
+      <x:c r="AA5" s="6"/>
+      <x:c r="AB5" s="6"/>
+      <x:c r="AC5" s="6"/>
+    </x:row>
+    <x:row r="6" spans="1:29" s="1" customFormat="1" ht="15.75" customHeight="1">
       <x:c r="A6" s="11">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B6" s="7">
-        <x:v>28.358658453114309</x:v>
-      </x:c>
-      <x:c r="C6" s="5" t="s">
+      <x:c r="B6" s="11">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C6" s="11" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D6" s="11" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E6" s="11">
+        <x:v>39862</x:v>
+      </x:c>
+      <x:c r="F6" s="11" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D6" s="5" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="E6" s="13">
-        <x:v>39862</x:v>
-      </x:c>
-      <x:c r="F6" s="5" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="G6" s="5">
+      <x:c r="G6" s="11">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H6" s="12">
         <x:v>40148</x:v>
       </x:c>
       <x:c r="I6" s="11" t="s">
-        <x:v>21</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="J6" s="11">
         <x:v>2</x:v>
@@ -1547,13 +1493,13 @@
       <x:c r="L6" s="11">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="M6" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="N6" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="O6" s="5">
+      <x:c r="M6" s="13" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="N6" s="13" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="O6" s="11">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P6" s="11">
@@ -1563,57 +1509,57 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="R6" s="11" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="S6" s="5">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="S6" s="11">
         <x:v>26</x:v>
       </x:c>
       <x:c r="T6" s="11" t="s">
-        <x:v>39</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="U6" s="11" t="s">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="V6" s="11">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="W6" s="5">
+      <x:c r="W6" s="11">
         <x:v>800</x:v>
       </x:c>
-      <x:c r="X6" s="5"/>
-      <x:c r="Y6" s="5"/>
-      <x:c r="Z6" s="5"/>
-      <x:c r="AA6" s="5"/>
-      <x:c r="AB6" s="5"/>
-      <x:c r="AC6" s="5"/>
-    </x:row>
-    <x:row r="7" spans="1:29" customFormat="1" ht="15.75" customHeight="1">
-      <x:c r="A7" s="9">
+      <x:c r="X6" s="6"/>
+      <x:c r="Y6" s="6"/>
+      <x:c r="Z6" s="6"/>
+      <x:c r="AA6" s="6"/>
+      <x:c r="AB6" s="6"/>
+      <x:c r="AC6" s="6"/>
+    </x:row>
+    <x:row r="7" spans="1:29" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <x:c r="A7" s="10">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B7" s="7">
-        <x:v>50.75975359342916</x:v>
-      </x:c>
-      <x:c r="C7" s="5" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="D7" s="5" t="s">
+      <x:c r="B7" s="11">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C7" s="11" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D7" s="11" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="E7" s="13">
+      <x:c r="E7" s="11">
         <x:v>39882</x:v>
       </x:c>
-      <x:c r="F7" s="5" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="G7" s="5">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H7" s="13">
+      <x:c r="F7" s="11" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="G7" s="11">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H7" s="11">
         <x:v>39939</x:v>
       </x:c>
       <x:c r="I7" s="11" t="s">
-        <x:v>52</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J7" s="11">
         <x:v>2</x:v>
@@ -1624,73 +1570,73 @@
       <x:c r="L7" s="11">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="M7" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="N7" s="6" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="O7" s="5">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="P7" s="5">
+      <x:c r="M7" s="13" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="N7" s="13" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="O7" s="11">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P7" s="11">
         <x:v>1</x:v>
       </x:c>
       <x:c r="Q7" s="11">
         <x:v>1</x:v>
       </x:c>
       <x:c r="R7" s="11" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="S7" s="5">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="S7" s="11">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="T7" s="6" t="s">
-        <x:v>45</x:v>
+      <x:c r="T7" s="13" t="s">
+        <x:v>34</x:v>
       </x:c>
       <x:c r="U7" s="11" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V7" s="5">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="V7" s="11">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="W7" s="5">
+      <x:c r="W7" s="11">
         <x:v>500</x:v>
       </x:c>
-      <x:c r="X7" s="5"/>
-      <x:c r="Y7" s="5"/>
-      <x:c r="Z7" s="5"/>
-      <x:c r="AA7" s="5"/>
-      <x:c r="AB7" s="5"/>
-      <x:c r="AC7" s="5"/>
-    </x:row>
-    <x:row r="8" spans="1:29" customFormat="1" ht="15.75" customHeight="1">
-      <x:c r="A8" s="9">
+      <x:c r="X7" s="6"/>
+      <x:c r="Y7" s="6"/>
+      <x:c r="Z7" s="6"/>
+      <x:c r="AA7" s="6"/>
+      <x:c r="AB7" s="6"/>
+      <x:c r="AC7" s="6"/>
+    </x:row>
+    <x:row r="8" spans="1:29" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <x:c r="A8" s="10">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B8" s="7">
-        <x:v>40.418891170431209</x:v>
-      </x:c>
-      <x:c r="C8" s="5" t="s">
+      <x:c r="B8" s="11">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C8" s="11" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D8" s="11" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E8" s="11">
+        <x:v>39883</x:v>
+      </x:c>
+      <x:c r="F8" s="11" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D8" s="5" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="E8" s="13">
-        <x:v>39883</x:v>
-      </x:c>
-      <x:c r="F8" s="5" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="G8" s="5">
+      <x:c r="G8" s="11">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H8" s="12">
         <x:v>43018</x:v>
       </x:c>
       <x:c r="I8" s="11" t="s">
-        <x:v>21</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="J8" s="11">
         <x:v>2</x:v>
@@ -1701,73 +1647,73 @@
       <x:c r="L8" s="11">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="M8" s="6" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="N8" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="O8" s="5">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P8" s="5">
+      <x:c r="M8" s="13" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="N8" s="13" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="O8" s="11">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P8" s="11">
         <x:v>1</x:v>
       </x:c>
       <x:c r="Q8" s="11">
         <x:v>1</x:v>
       </x:c>
       <x:c r="R8" s="11" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="S8" s="5">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="S8" s="11">
         <x:v>32</x:v>
       </x:c>
       <x:c r="T8" s="11" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="U8" s="6" t="s">
-        <x:v>37</x:v>
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="U8" s="13" t="s">
+        <x:v>43</x:v>
       </x:c>
       <x:c r="V8" s="11">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="W8" s="5">
+      <x:c r="W8" s="11">
         <x:v>600</x:v>
       </x:c>
-      <x:c r="X8" s="5"/>
-      <x:c r="Y8" s="5"/>
-      <x:c r="Z8" s="5"/>
-      <x:c r="AA8" s="5"/>
-      <x:c r="AB8" s="5"/>
-      <x:c r="AC8" s="5"/>
-    </x:row>
-    <x:row r="9" spans="1:29" customFormat="1" ht="15.75" customHeight="1">
+      <x:c r="X8" s="6"/>
+      <x:c r="Y8" s="6"/>
+      <x:c r="Z8" s="6"/>
+      <x:c r="AA8" s="6"/>
+      <x:c r="AB8" s="6"/>
+      <x:c r="AC8" s="6"/>
+    </x:row>
+    <x:row r="9" spans="1:29" s="1" customFormat="1" ht="15.75" customHeight="1">
       <x:c r="A9" s="11">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B9" s="7">
-        <x:v>69.322381930184804</x:v>
-      </x:c>
-      <x:c r="C9" s="5" t="s">
+      <x:c r="B9" s="11">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C9" s="11" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D9" s="11" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E9" s="11">
+        <x:v>39890</x:v>
+      </x:c>
+      <x:c r="F9" s="11" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D9" s="5" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="E9" s="13">
-        <x:v>39890</x:v>
-      </x:c>
-      <x:c r="F9" s="5" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="G9" s="5">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H9" s="13">
+      <x:c r="G9" s="11">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H9" s="11">
         <x:v>39900</x:v>
       </x:c>
       <x:c r="I9" s="11" t="s">
-        <x:v>52</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J9" s="11">
         <x:v>1</x:v>
@@ -1778,13 +1724,13 @@
       <x:c r="L9" s="11">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="M9" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="N9" s="6" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="O9" s="5">
+      <x:c r="M9" s="13" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="N9" s="13" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="O9" s="11">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P9" s="11">
@@ -1794,32 +1740,32 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="R9" s="11" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="S9" s="5">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="S9" s="11">
         <x:v>62</x:v>
       </x:c>
       <x:c r="T9" s="11" t="s">
-        <x:v>39</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="U9" s="11" t="s">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="V9" s="11">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="W9" s="5">
+      <x:c r="W9" s="11">
         <x:v>1600</x:v>
       </x:c>
-      <x:c r="X9" s="5"/>
-      <x:c r="Y9" s="5"/>
-      <x:c r="Z9" s="5"/>
-      <x:c r="AA9" s="5"/>
-      <x:c r="AB9" s="5"/>
-      <x:c r="AC9" s="5"/>
+      <x:c r="X9" s="6"/>
+      <x:c r="Y9" s="6"/>
+      <x:c r="Z9" s="6"/>
+      <x:c r="AA9" s="6"/>
+      <x:c r="AB9" s="6"/>
+      <x:c r="AC9" s="6"/>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1835,262 +1781,262 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.800000000000001"/>
   <x:cols>
-    <x:col min="1" max="1" width="46" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="46" style="2" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">
-      <x:c r="A1" s="1" t="s">
+      <x:c r="A1" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B1" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:2">
+      <x:c r="A2" s="5" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B2" s="5" t="s">
+        <x:v>37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:2">
+      <x:c r="A3" s="5" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B3" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:6">
+      <x:c r="A4" s="5" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B4" s="5" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F4" s="3"/>
+    </x:row>
+    <x:row r="5" spans="1:6">
+      <x:c r="A5" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B5" s="5" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F5" s="4"/>
+    </x:row>
+    <x:row r="6" spans="1:6">
+      <x:c r="A6" s="5" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B6" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F6" s="4"/>
+    </x:row>
+    <x:row r="7" spans="1:6">
+      <x:c r="A7" s="5" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B7" s="5" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F7" s="4"/>
+    </x:row>
+    <x:row r="8" spans="1:6">
+      <x:c r="A8" s="5" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B8" s="5" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F8" s="4"/>
+    </x:row>
+    <x:row r="9" spans="1:6">
+      <x:c r="A9" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B9" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F9" s="4"/>
+    </x:row>
+    <x:row r="10" spans="1:6">
+      <x:c r="A10" s="5" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B1" s="1" t="s">
+      <x:c r="B10" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F10" s="4"/>
+    </x:row>
+    <x:row r="11" spans="1:6">
+      <x:c r="A11" s="5" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B11" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F11" s="4"/>
+    </x:row>
+    <x:row r="12" spans="1:6">
+      <x:c r="A12" s="5" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B12" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F12" s="4"/>
+    </x:row>
+    <x:row r="13" spans="1:6">
+      <x:c r="A13" s="5" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B13" s="5" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F13" s="4"/>
+    </x:row>
+    <x:row r="14" spans="1:6">
+      <x:c r="A14" s="5" t="s">
         <x:v>44</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:2">
-      <x:c r="A2" s="4" t="s">
+      <x:c r="B14" s="5" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F14" s="4"/>
+    </x:row>
+    <x:row r="15" spans="1:6">
+      <x:c r="A15" s="5" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B15" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F15" s="4"/>
+    </x:row>
+    <x:row r="16" spans="1:6">
+      <x:c r="A16" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B16" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F16" s="4"/>
+    </x:row>
+    <x:row r="17" spans="1:6">
+      <x:c r="A17" s="5" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B17" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F17" s="4"/>
+    </x:row>
+    <x:row r="18" spans="1:6">
+      <x:c r="A18" s="5" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B18" s="5" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F18" s="4"/>
+    </x:row>
+    <x:row r="19" spans="1:6">
+      <x:c r="A19" s="5" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B19" s="5" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F19" s="4"/>
+    </x:row>
+    <x:row r="20" spans="1:6">
+      <x:c r="A20" s="5" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B20" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F20" s="4"/>
+    </x:row>
+    <x:row r="21" spans="1:6">
+      <x:c r="A21" s="5" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B21" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F21" s="4"/>
+    </x:row>
+    <x:row r="22" spans="1:6">
+      <x:c r="A22" s="5" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B22" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F22" s="4"/>
+    </x:row>
+    <x:row r="23" spans="1:2">
+      <x:c r="A23" s="5" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B23" s="5" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:2">
+      <x:c r="A24" s="5" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="B2" s="4" t="s">
-        <x:v>43</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:2">
-      <x:c r="A3" s="4" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B3" s="4" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:6">
-      <x:c r="A4" s="4" t="s">
+      <x:c r="B24" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:2">
+      <x:c r="A25" s="5" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B25" s="5" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="B4" s="4" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="F4" s="2"/>
-    </x:row>
-    <x:row r="5" spans="1:6">
-      <x:c r="A5" s="4" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="B5" s="4" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="F5" s="3"/>
-    </x:row>
-    <x:row r="6" spans="1:6">
-      <x:c r="A6" s="4" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="B6" s="4" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F6" s="3"/>
-    </x:row>
-    <x:row r="7" spans="1:6">
-      <x:c r="A7" s="4" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B7" s="4" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="F7" s="3"/>
-    </x:row>
-    <x:row r="8" spans="1:6">
-      <x:c r="A8" s="4" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="B8" s="4" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="F8" s="3"/>
-    </x:row>
-    <x:row r="9" spans="1:6">
-      <x:c r="A9" s="4" t="s">
+    </x:row>
+    <x:row r="26" spans="1:2">
+      <x:c r="A26" s="5" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B26" s="5" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:2">
+      <x:c r="A27" s="5" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B27" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:2">
+      <x:c r="A28" s="5" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:2">
+      <x:c r="A29" s="5" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B9" s="4" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F9" s="3"/>
-    </x:row>
-    <x:row r="10" spans="1:6">
-      <x:c r="A10" s="4" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B10" s="4" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F10" s="3"/>
-    </x:row>
-    <x:row r="11" spans="1:6">
-      <x:c r="A11" s="4" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="B11" s="4" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F11" s="3"/>
-    </x:row>
-    <x:row r="12" spans="1:6">
-      <x:c r="A12" s="4" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="B12" s="4" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F12" s="3"/>
-    </x:row>
-    <x:row r="13" spans="1:6">
-      <x:c r="A13" s="4" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="B13" s="4" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="F13" s="3"/>
-    </x:row>
-    <x:row r="14" spans="1:6">
-      <x:c r="A14" s="4" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="B14" s="4" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="F14" s="3"/>
-    </x:row>
-    <x:row r="15" spans="1:6">
-      <x:c r="A15" s="4" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B15" s="4" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F15" s="3"/>
-    </x:row>
-    <x:row r="16" spans="1:6">
-      <x:c r="A16" s="4" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B16" s="4" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F16" s="3"/>
-    </x:row>
-    <x:row r="17" spans="1:6">
-      <x:c r="A17" s="4" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="B17" s="4" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F17" s="3"/>
-    </x:row>
-    <x:row r="18" spans="1:6">
-      <x:c r="A18" s="4" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B18" s="4" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="F18" s="3"/>
-    </x:row>
-    <x:row r="19" spans="1:6">
-      <x:c r="A19" s="4" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B19" s="4" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="F19" s="3"/>
-    </x:row>
-    <x:row r="20" spans="1:6">
-      <x:c r="A20" s="4" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="B20" s="4" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F20" s="3"/>
-    </x:row>
-    <x:row r="21" spans="1:6">
-      <x:c r="A21" s="4" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="B21" s="4" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F21" s="3"/>
-    </x:row>
-    <x:row r="22" spans="1:6">
-      <x:c r="A22" s="4" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="B22" s="4" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F22" s="3"/>
-    </x:row>
-    <x:row r="23" spans="1:2">
-      <x:c r="A23" s="4" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="B23" s="4" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:2">
-      <x:c r="A24" s="4" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B24" s="4" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:2">
-      <x:c r="A25" s="4" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B25" s="4" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:2">
-      <x:c r="A26" s="4" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="B26" s="4" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:2">
-      <x:c r="A27" s="4" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B27" s="4" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:2">
-      <x:c r="A28" s="4" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B28" s="4" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:2">
-      <x:c r="A29" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B29" s="4" t="s">
-        <x:v>18</x:v>
+      <x:c r="B29" s="5" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -2106,232 +2052,232 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.800000000000001"/>
   <x:cols>
-    <x:col min="1" max="1" width="36.5625" bestFit="1" customWidth="1"/>
+    <x:col min="1" max="1" width="36.5625" style="1" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:5">
-      <x:c r="A1" s="6" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B1" s="6" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="C1" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D1" s="5" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="E1" s="5" t="s">
-        <x:v>46</x:v>
+      <x:c r="A1" s="7" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B1" s="7" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C1" s="6" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D1" s="6" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E1" s="6" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:5">
-      <x:c r="A2" s="6" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B2" s="6" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C2" s="5">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D2" s="5">
+      <x:c r="A2" s="7" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B2" s="7" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C2" s="6">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D2" s="6">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="E2" s="5">
+      <x:c r="E2" s="6">
         <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
-      <x:c r="A3" s="6" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B3" s="6" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C3" s="5">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D3" s="5">
+      <x:c r="A3" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B3" s="7" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C3" s="6">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D3" s="6">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E3" s="5">
+      <x:c r="E3" s="6">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
-      <x:c r="A4" s="6" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="B4" s="6" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C4" s="5">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D4" s="5">
+      <x:c r="A4" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B4" s="7" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C4" s="6">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D4" s="6">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="E4" s="5">
+      <x:c r="E4" s="6">
         <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
-      <x:c r="A5" s="6" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B5" s="6" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C5" s="5">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D5" s="5">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E5" s="5">
+      <x:c r="A5" s="7" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B5" s="7" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C5" s="6">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D5" s="6">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E5" s="6">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
-      <x:c r="A6" s="6" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B6" s="6" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C6" s="5">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D6" s="5">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E6" s="5">
+      <x:c r="A6" s="7" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B6" s="7" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C6" s="6">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D6" s="6">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E6" s="6">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
-      <x:c r="A7" s="6" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="B7" s="6" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C7" s="5">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D7" s="5">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E7" s="5">
+      <x:c r="A7" s="7" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B7" s="7" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C7" s="6">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D7" s="6">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E7" s="6">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
-      <x:c r="A8" s="6" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="B8" s="6" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C8" s="5">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D8" s="5">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E8" s="5">
+      <x:c r="A8" s="7" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B8" s="7" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C8" s="6">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D8" s="6">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E8" s="6">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
-      <x:c r="A9" s="6" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="B9" s="6" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C9" s="5">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D9" s="5">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E9" s="5">
+      <x:c r="A9" s="7" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B9" s="7" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C9" s="6">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D9" s="6">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E9" s="6">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
-      <x:c r="A10" s="6" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="B10" s="6" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C10" s="5">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D10" s="5">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E10" s="5">
+      <x:c r="A10" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B10" s="7" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C10" s="6">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D10" s="6">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E10" s="6">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
-      <x:c r="A11" s="6" t="s">
+      <x:c r="A11" s="7" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B11" s="7" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C11" s="6">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D11" s="6">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="E11" s="6">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:5">
+      <x:c r="A12" s="7" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B12" s="7" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C12" s="6">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B11" s="6" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C11" s="5">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D11" s="5">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E11" s="5">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:5">
-      <x:c r="A12" s="6" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B12" s="6" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C12" s="5">
+      <x:c r="D12" s="6">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="E12" s="6">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="D12" s="5">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="E12" s="5">
-        <x:v>10</x:v>
-      </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
-      <x:c r="A13" s="6" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B13" s="6" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C13" s="5">
+      <x:c r="A13" s="7" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B13" s="7" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C13" s="6">
         <x:v>300</x:v>
       </x:c>
-      <x:c r="D13" s="5">
+      <x:c r="D13" s="6">
         <x:v>1800</x:v>
       </x:c>
-      <x:c r="E13" s="5">
+      <x:c r="E13" s="6">
         <x:v>300</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>